--- a/DaySale_2025-05-28_12-20.xlsx
+++ b/DaySale_2025-05-28_12-20.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>COLOVERIN A 30 TABLETS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
     <t>32.6700</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAFLOX EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -155,10 +167,37 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>2:0</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>شمع حريمي</t>
@@ -873,7 +912,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -889,7 +928,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -899,14 +938,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -915,7 +954,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -932,14 +971,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -948,14 +987,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -972,7 +1011,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -988,7 +1027,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -998,14 +1037,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1014,14 +1053,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1038,7 +1077,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1054,7 +1093,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,14 +1103,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1080,14 +1119,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1104,7 +1143,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1120,13 +1159,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1137,7 +1176,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1146,31 +1185,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1186,13 +1225,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1203,42 +1242,174 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>509.87</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>57</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>58</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>32</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>50</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>51</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>53</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>50</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>50</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>67</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>32</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>50</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>575.38999999999999</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1478,30 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
